--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H2">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I2">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J2">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N2">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O2">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P2">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q2">
-        <v>116.8574331927263</v>
+        <v>23.11696271059511</v>
       </c>
       <c r="R2">
-        <v>1051.716898734537</v>
+        <v>208.052664395356</v>
       </c>
       <c r="S2">
-        <v>0.0234942437623817</v>
+        <v>0.002680509834005254</v>
       </c>
       <c r="T2">
-        <v>0.02349424376238169</v>
+        <v>0.002680509834005255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H3">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I3">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J3">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P3">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q3">
-        <v>42.81623093363633</v>
+        <v>19.48954028890266</v>
       </c>
       <c r="R3">
-        <v>385.3460784027269</v>
+        <v>175.405862600124</v>
       </c>
       <c r="S3">
-        <v>0.008608224047521635</v>
+        <v>0.002259894825227251</v>
       </c>
       <c r="T3">
-        <v>0.008608224047521632</v>
+        <v>0.002259894825227251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H4">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I4">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J4">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N4">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O4">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P4">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q4">
-        <v>1295.650992985518</v>
+        <v>887.1829175524298</v>
       </c>
       <c r="R4">
-        <v>11660.85893686966</v>
+        <v>7984.646257971868</v>
       </c>
       <c r="S4">
-        <v>0.2604912621174054</v>
+        <v>0.1028726206306858</v>
       </c>
       <c r="T4">
-        <v>0.2604912621174054</v>
+        <v>0.1028726206306858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I5">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J5">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N5">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O5">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P5">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q5">
-        <v>122.8801068079037</v>
+        <v>53.40265495314078</v>
       </c>
       <c r="R5">
-        <v>1105.920961271133</v>
+        <v>480.623894578267</v>
       </c>
       <c r="S5">
-        <v>0.02470510522108649</v>
+        <v>0.006192264250107371</v>
       </c>
       <c r="T5">
-        <v>0.02470510522108648</v>
+        <v>0.006192264250107373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I6">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J6">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P6">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q6">
         <v>45.02292140509367</v>
@@ -818,10 +818,10 @@
         <v>405.206292645843</v>
       </c>
       <c r="S6">
-        <v>0.009051880239755807</v>
+        <v>0.005220598618117182</v>
       </c>
       <c r="T6">
-        <v>0.009051880239755802</v>
+        <v>0.005220598618117183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I7">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J7">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N7">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O7">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P7">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q7">
-        <v>1362.427087896509</v>
+        <v>2049.487375115184</v>
       </c>
       <c r="R7">
-        <v>12261.84379106858</v>
+        <v>18445.38637603665</v>
       </c>
       <c r="S7">
-        <v>0.2739166284674546</v>
+        <v>0.2376467502431872</v>
       </c>
       <c r="T7">
-        <v>0.2739166284674545</v>
+        <v>0.2376467502431872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H8">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I8">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J8">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N8">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O8">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P8">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q8">
-        <v>159.647071630515</v>
+        <v>137.897542493227</v>
       </c>
       <c r="R8">
-        <v>1436.823644674635</v>
+        <v>1241.077882439043</v>
       </c>
       <c r="S8">
-        <v>0.03209712137568323</v>
+        <v>0.01598980468869462</v>
       </c>
       <c r="T8">
-        <v>0.03209712137568322</v>
+        <v>0.01598980468869463</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H9">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I9">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J9">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O9">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P9">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q9">
-        <v>58.49423267356499</v>
+        <v>116.259205147683</v>
       </c>
       <c r="R9">
-        <v>526.4480940620849</v>
+        <v>1046.332846329147</v>
       </c>
       <c r="S9">
-        <v>0.01176029392036782</v>
+        <v>0.01348074773461345</v>
       </c>
       <c r="T9">
-        <v>0.01176029392036782</v>
+        <v>0.01348074773461345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H10">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I10">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J10">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N10">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O10">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P10">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q10">
-        <v>1770.07898628208</v>
+        <v>5292.232617409531</v>
       </c>
       <c r="R10">
-        <v>15930.71087653872</v>
+        <v>47630.09355668578</v>
       </c>
       <c r="S10">
-        <v>0.3558752408483434</v>
+        <v>0.6136568091753618</v>
       </c>
       <c r="T10">
-        <v>0.3558752408483433</v>
+        <v>0.6136568091753618</v>
       </c>
     </row>
   </sheetData>
